--- a/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
+++ b/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365.sharepoint.com/sites/ID-Mail2UPN/Freigegebene Dokumente/Migrationen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00CA408-4DE1-4519-B54B-A0E758375985}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23C063C-2E5A-45F6-8696-9313D971A880}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
+    <workbookView xWindow="3456" yWindow="2148" windowWidth="23040" windowHeight="14532" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -300,6 +300,9 @@
       </rPr>
       <t xml:space="preserve"> Nachmigrationen</t>
     </r>
+  </si>
+  <si>
+    <t>CSH, SPACE</t>
   </si>
 </sst>
 </file>
@@ -790,6 +793,9 @@
       <c r="B11" s="4">
         <v>44356</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1278,6 +1284,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000B5FCF74A1A49E448305B6D279E916BF" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4319ab122f5e0bfcf964c68c7fd55b84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0859a3a8-2591-46fb-991a-bdfafc264af6" xmlns:ns3="817d9ee2-9f35-47f3-85a8-1c4f9e5679d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0951b72d2704573793f3023cca08553b" ns2:_="" ns3:_="">
     <xsd:import namespace="0859a3a8-2591-46fb-991a-bdfafc264af6"/>
@@ -1468,15 +1483,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1484,6 +1490,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D71FE82-3B51-4CD1-857A-863DD2419C08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16811ED4-1849-4AF4-9CBB-305406C7FCFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1498,14 +1512,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D71FE82-3B51-4CD1-857A-863DD2419C08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
+++ b/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365.sharepoint.com/sites/ID-Mail2UPN/Freigegebene Dokumente/Migrationen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23C063C-2E5A-45F6-8696-9313D971A880}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CDD786-73EE-4E26-9FA7-72E23AB6F059}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="2148" windowWidth="23040" windowHeight="14532" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
+    <workbookView xWindow="7884" yWindow="2280" windowWidth="23040" windowHeight="12156" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Woche</t>
+  </si>
   <si>
     <t>Datum</t>
   </si>
@@ -42,103 +45,59 @@
     <t>Uhrzeit</t>
   </si>
   <si>
-    <t>Woche</t>
+    <t>Org-Einheiten</t>
+  </si>
+  <si>
+    <t>Vormerkungen</t>
   </si>
   <si>
     <t>W21</t>
   </si>
   <si>
-    <t>W22</t>
-  </si>
-  <si>
-    <t>Org-Einheiten</t>
-  </si>
-  <si>
-    <t>W23</t>
-  </si>
-  <si>
-    <t>W24</t>
-  </si>
-  <si>
-    <t>W25</t>
-  </si>
-  <si>
-    <t>W26</t>
-  </si>
-  <si>
-    <t>W27</t>
-  </si>
-  <si>
-    <t>W28</t>
-  </si>
-  <si>
-    <t>W29</t>
-  </si>
-  <si>
-    <t>W30</t>
-  </si>
-  <si>
-    <t>W31</t>
-  </si>
-  <si>
-    <t>W32</t>
-  </si>
-  <si>
-    <t>W33</t>
-  </si>
-  <si>
-    <t>W34</t>
-  </si>
-  <si>
-    <t>W35</t>
-  </si>
-  <si>
-    <t>W36</t>
-  </si>
-  <si>
-    <t>W37</t>
-  </si>
-  <si>
-    <t>W38</t>
-  </si>
-  <si>
-    <t>W39</t>
-  </si>
-  <si>
-    <t>W40</t>
-  </si>
-  <si>
-    <t>W41</t>
-  </si>
-  <si>
-    <t>W42</t>
-  </si>
-  <si>
-    <t>W43</t>
-  </si>
-  <si>
-    <t>W44</t>
-  </si>
-  <si>
-    <t>W45</t>
-  </si>
-  <si>
-    <t>W46</t>
-  </si>
-  <si>
-    <t>W47</t>
-  </si>
-  <si>
-    <t>W48</t>
-  </si>
-  <si>
-    <t>W49</t>
-  </si>
-  <si>
-    <t>SOWI</t>
-  </si>
-  <si>
-    <t>Vormerkungen</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FIN, FK, FUG, GS, LEHRE, REKTORAT</t>
+    </r>
   </si>
   <si>
     <r>
@@ -164,50 +123,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ZB:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FIN, FK, FUG, GS, LEHRE, REKTORAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ZB:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BT</t>
-    </r>
+    <t>W22</t>
   </si>
   <si>
     <r>
@@ -279,30 +195,97 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ZB:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nachmigrationen</t>
-    </r>
+    <t>W23</t>
   </si>
   <si>
     <t>CSH, SPACE</t>
+  </si>
+  <si>
+    <t>W25</t>
+  </si>
+  <si>
+    <t>W26</t>
+  </si>
+  <si>
+    <t>SOWI</t>
+  </si>
+  <si>
+    <t>W27</t>
+  </si>
+  <si>
+    <t>DCBP</t>
+  </si>
+  <si>
+    <t>W28</t>
+  </si>
+  <si>
+    <t>W29</t>
+  </si>
+  <si>
+    <t>W30</t>
+  </si>
+  <si>
+    <t>W31</t>
+  </si>
+  <si>
+    <t>W32</t>
+  </si>
+  <si>
+    <t>W33</t>
+  </si>
+  <si>
+    <t>W34</t>
+  </si>
+  <si>
+    <t>W35</t>
+  </si>
+  <si>
+    <t>W36</t>
+  </si>
+  <si>
+    <t>W37</t>
+  </si>
+  <si>
+    <t>W38</t>
+  </si>
+  <si>
+    <t>W39</t>
+  </si>
+  <si>
+    <t>W40</t>
+  </si>
+  <si>
+    <t>W41</t>
+  </si>
+  <si>
+    <t>W42</t>
+  </si>
+  <si>
+    <t>W43</t>
+  </si>
+  <si>
+    <t>W44</t>
+  </si>
+  <si>
+    <t>W45</t>
+  </si>
+  <si>
+    <t>W46</t>
+  </si>
+  <si>
+    <t>W47</t>
+  </si>
+  <si>
+    <t>W48</t>
+  </si>
+  <si>
+    <t>W49</t>
+  </si>
+  <si>
+    <t>UB, PQM (Vormigration)</t>
+  </si>
+  <si>
+    <t>DCBP (Vormigration)</t>
   </si>
 </sst>
 </file>
@@ -677,41 +660,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77097608-7024-4F6E-ADBD-1E32B20DCEF8}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="3"/>
-    <col min="4" max="4" width="55.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>44341.5625</v>
@@ -720,7 +703,7 @@
         <v>0.5625</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,7 +714,7 @@
         <v>0.5625</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -742,12 +725,12 @@
         <v>0.5625</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>44348.5625</v>
@@ -756,7 +739,7 @@
         <v>0.5625</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -767,7 +750,7 @@
         <v>0.5625</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,501 +761,496 @@
         <v>0.5625</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>44355</v>
+        <v>44355.5625</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <v>44356</v>
+        <v>44356.5625</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.5625</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>44357.5625</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="B14" s="4">
-        <v>44362</v>
+        <v>44370</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>44363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
-        <v>44364</v>
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44376</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B18" s="4">
-        <v>44369</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
-        <v>44371</v>
+        <v>44378.5625</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44383.5625</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B22" s="4">
-        <v>44376</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
-        <v>44377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
-        <v>44378.5625</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44390</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B26" s="4">
-        <v>44383</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
-        <v>44385</v>
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44397</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B30" s="4">
-        <v>44390</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
-        <v>44391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
-        <v>44392</v>
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44404</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B34" s="4">
-        <v>44397</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
-        <v>44398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
-        <v>44399</v>
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44411</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B38" s="4">
-        <v>44404</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="4">
-        <v>44406</v>
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="4">
+        <v>44418</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B42" s="4">
-        <v>44411</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="4">
-        <v>44413</v>
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="4">
+        <v>44425</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B46" s="4">
-        <v>44418</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
-        <v>44419</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="4">
-        <v>44420</v>
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="4">
+        <v>44432</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="B50" s="4">
-        <v>44425</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
-        <v>44426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="4">
-        <v>44427</v>
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4">
+        <v>44439</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B54" s="4">
-        <v>44432</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
-        <v>44433</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="4">
-        <v>44434</v>
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="4">
+        <v>44446</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B58" s="4">
-        <v>44439</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="4">
-        <v>44441</v>
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="4">
+        <v>44453</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B62" s="4">
-        <v>44446</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
-        <v>44447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="4">
-        <v>44448</v>
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="4">
+        <v>44460</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B66" s="4">
-        <v>44453</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
-        <v>44454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="4">
-        <v>44455</v>
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="4">
+        <v>44467</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="B70" s="4">
-        <v>44460</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
-        <v>44461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="4">
-        <v>44462</v>
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="4">
+        <v>44474</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B74" s="4">
-        <v>44467</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
-        <v>44468</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="4">
-        <v>44469</v>
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="4">
+        <v>44481</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B78" s="4">
-        <v>44474</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="4">
-        <v>44476</v>
+        <v>44483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="4">
+        <v>44488</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B82" s="4">
-        <v>44481</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
-        <v>44482</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="4">
-        <v>44483</v>
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="4">
+        <v>44495</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B86" s="4">
-        <v>44488</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B87" s="4">
-        <v>44489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="4">
-        <v>44490</v>
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B90" s="4">
-        <v>44495</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" s="4">
-        <v>44496</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="4">
-        <v>44497</v>
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="4">
+        <v>44509</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B94" s="4">
-        <v>44502</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
-        <v>44503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="4">
-        <v>44504</v>
+        <v>44511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="4">
+        <v>44516</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B98" s="4">
-        <v>44509</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
-        <v>44510</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="4">
-        <v>44511</v>
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="4">
+        <v>44523</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="B102" s="4">
-        <v>44516</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
-        <v>44517</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="4">
-        <v>44518</v>
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="4">
+        <v>44530</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B106" s="4">
-        <v>44523</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B107" s="4">
-        <v>44524</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="4">
-        <v>44525</v>
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="4">
+        <v>44537</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B110" s="4">
-        <v>44530</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B111" s="4">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="4">
-        <v>44532</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="4">
-        <v>44537</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="4">
-        <v>44538</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="4">
         <v>44539</v>
       </c>
     </row>
@@ -1519,16 +1497,8 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F63B3C-1708-4114-8490-E03AFAFBE32B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="817d9ee2-9f35-47f3-85a8-1c4f9e5679d8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0859a3a8-2591-46fb-991a-bdfafc264af6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
+++ b/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365.sharepoint.com/sites/ID-Mail2UPN/Freigegebene Dokumente/Migrationen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CDD786-73EE-4E26-9FA7-72E23AB6F059}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FC856C-20FC-4F17-8C79-DFE8A89EFE2C}"/>
   <bookViews>
-    <workbookView xWindow="7884" yWindow="2280" windowWidth="23040" windowHeight="12156" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
+    <workbookView xWindow="9420" yWindow="1212" windowWidth="26280" windowHeight="14676" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Woche</t>
   </si>
@@ -286,6 +286,30 @@
   </si>
   <si>
     <t>DCBP (Vormigration)</t>
+  </si>
+  <si>
+    <t>W24</t>
+  </si>
+  <si>
+    <t>ROM (Vormigration)</t>
+  </si>
+  <si>
+    <t>PSY, PTP - Teil 1</t>
+  </si>
+  <si>
+    <t>PSY, PTP - Teil 2</t>
+  </si>
+  <si>
+    <t>Germ, CDE, KUP (Vormigration)</t>
+  </si>
+  <si>
+    <t>ISSI, Artorg</t>
+  </si>
+  <si>
+    <t>ROM, Wyssacademy</t>
+  </si>
+  <si>
+    <t>KUP</t>
   </si>
 </sst>
 </file>
@@ -345,7 +369,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -660,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77097608-7024-4F6E-ADBD-1E32B20DCEF8}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,466 +815,519 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44364.760416666664</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B15" s="4">
         <v>44369</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
-        <v>44370</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>44370.760416666664</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>44371</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B19" s="4">
         <v>44376</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
         <v>44377</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>44378.5625</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>44383.5625</v>
       </c>
       <c r="C21" s="3">
         <v>0.5625</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44383.5625</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>44384</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
         <v>44385</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B27" s="4">
         <v>44390</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
         <v>44391</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
         <v>44392</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B31" s="4">
         <v>44397</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
-        <v>44398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>44398.760416666664</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
         <v>44399</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="4">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
+      <c r="B35" s="4">
+        <v>44404.5625</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
         <v>44405</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
         <v>44406</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B39" s="4">
         <v>44411</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="4">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>44412.5625</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
         <v>44413</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B43" s="4">
         <v>44418</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
         <v>44419</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
         <v>44420</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B47" s="4">
         <v>44425</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
         <v>44426</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
         <v>44427</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="4">
-        <v>44432</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="4">
-        <v>44433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
+        <v>44432.5625</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>44433.5625</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
         <v>44434</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B55" s="4">
         <v>44439</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="4">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>44440.5625</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
         <v>44441</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B59" s="4">
         <v>44446</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
         <v>44447</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
         <v>44448</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B63" s="4">
         <v>44453</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
         <v>44454</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
         <v>44455</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B67" s="4">
         <v>44460</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
         <v>44461</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="4">
         <v>44462</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B71" s="4">
         <v>44467</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
         <v>44468</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
         <v>44469</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B75" s="4">
         <v>44474</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="4">
         <v>44475</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="4">
         <v>44476</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B79" s="4">
         <v>44481</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="4">
         <v>44482</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="4">
         <v>44483</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B83" s="4">
         <v>44488</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="4">
         <v>44489</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="4">
         <v>44490</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B87" s="4">
         <v>44495</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
         <v>44496</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
         <v>44497</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B91" s="4">
         <v>44502</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="4">
         <v>44503</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="4">
         <v>44504</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B95" s="4">
         <v>44509</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="4">
         <v>44510</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="4">
         <v>44511</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B99" s="4">
         <v>44516</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="4">
         <v>44517</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="4">
         <v>44518</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B103" s="4">
         <v>44523</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="4">
         <v>44524</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="4">
         <v>44525</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B107" s="4">
         <v>44530</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="4">
         <v>44531</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="4">
         <v>44532</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B111" s="4">
         <v>44537</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="4">
         <v>44538</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="4">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="4">
         <v>44539</v>
       </c>
     </row>

--- a/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
+++ b/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365.sharepoint.com/sites/ID-Mail2UPN/Freigegebene Dokumente/Migrationen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FC856C-20FC-4F17-8C79-DFE8A89EFE2C}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{40033ABE-17FB-46E3-B1C1-D36FF5A890D7}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1212" windowWidth="26280" windowHeight="14676" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
+    <workbookView xWindow="1716" yWindow="1800" windowWidth="25584" windowHeight="13596" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Woche</t>
   </si>
@@ -240,15 +240,9 @@
     <t>W35</t>
   </si>
   <si>
-    <t>W36</t>
-  </si>
-  <si>
     <t>W37</t>
   </si>
   <si>
-    <t>W38</t>
-  </si>
-  <si>
     <t>W39</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>PSY, PTP - Teil 1</t>
   </si>
   <si>
-    <t>PSY, PTP - Teil 2</t>
-  </si>
-  <si>
     <t>Germ, CDE, KUP (Vormigration)</t>
   </si>
   <si>
@@ -309,7 +300,19 @@
     <t>ROM, Wyssacademy</t>
   </si>
   <si>
-    <t>KUP</t>
+    <t>WBKOLLEG, CSLS, CGS</t>
+  </si>
+  <si>
+    <t>PSY, PTP - Teil 2, ISPW</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>KUP - Keine weiteren Migration möglich</t>
+  </si>
+  <si>
+    <t>Unisport - Keine weiteren Migrationen möglich</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,7 +391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -684,13 +687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77097608-7024-4F6E-ADBD-1E32B20DCEF8}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
@@ -799,7 +802,7 @@
         <v>0.5625</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -815,7 +818,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4">
         <v>44364.760416666664</v>
@@ -824,7 +827,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,7 +846,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,7 +936,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -952,7 +955,7 @@
         <v>0.5625</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,7 +984,7 @@
         <v>0.5625</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,6 +1017,12 @@
       <c r="B47" s="4">
         <v>44425</v>
       </c>
+      <c r="C47" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1036,7 +1045,7 @@
         <v>0.5625</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,7 +1056,7 @@
         <v>0.5625</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,6 +1071,12 @@
       <c r="B55" s="4">
         <v>44439</v>
       </c>
+      <c r="C55" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -1074,260 +1089,215 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="4">
-        <v>44441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="4">
-        <v>44446</v>
+      <c r="B58" s="4">
+        <v>44455</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B60" s="4">
-        <v>44447</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
-        <v>44448</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="4">
-        <v>44453</v>
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>44469</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B64" s="4">
-        <v>44454</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
-        <v>44455</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="4">
-        <v>44460</v>
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>44476</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B68" s="4">
-        <v>44461</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
-        <v>44462</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="4">
-        <v>44467</v>
+        <v>44482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
+        <v>44483</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B72" s="4">
-        <v>44468</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
-        <v>44469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="4">
-        <v>44474</v>
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>44490</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B76" s="4">
-        <v>44475</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
-        <v>44476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="4">
-        <v>44481</v>
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="4">
+        <v>44497</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B80" s="4">
-        <v>44482</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
-        <v>44483</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="4">
-        <v>44488</v>
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="4">
+        <v>44504</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B84" s="4">
-        <v>44489</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
-        <v>44490</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="4">
-        <v>44495</v>
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>44511</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B88" s="4">
-        <v>44496</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
-        <v>44497</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="4">
-        <v>44502</v>
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="4">
+        <v>44518</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B92" s="4">
-        <v>44503</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="4">
-        <v>44509</v>
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="4">
+        <v>44525</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B96" s="4">
-        <v>44510</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" s="4">
-        <v>44516</v>
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="4">
+        <v>44532</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B100" s="4">
-        <v>44517</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
-        <v>44518</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B103" s="4">
-        <v>44523</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="4">
-        <v>44524</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="4">
-        <v>44525</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="4">
-        <v>44530</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="4">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="4">
-        <v>44532</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B111" s="4">
-        <v>44537</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="4">
         <v>44538</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="4">
         <v>44539</v>
       </c>
     </row>
@@ -1348,6 +1318,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000B5FCF74A1A49E448305B6D279E916BF" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4319ab122f5e0bfcf964c68c7fd55b84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0859a3a8-2591-46fb-991a-bdfafc264af6" xmlns:ns3="817d9ee2-9f35-47f3-85a8-1c4f9e5679d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0951b72d2704573793f3023cca08553b" ns2:_="" ns3:_="">
     <xsd:import namespace="0859a3a8-2591-46fb-991a-bdfafc264af6"/>
@@ -1538,12 +1514,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D71FE82-3B51-4CD1-857A-863DD2419C08}">
   <ds:schemaRefs>
@@ -1553,6 +1523,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F63B3C-1708-4114-8490-E03AFAFBE32B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16811ED4-1849-4AF4-9CBB-305406C7FCFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1569,13 +1548,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F63B3C-1708-4114-8490-E03AFAFBE32B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
+++ b/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365.sharepoint.com/sites/ID-Mail2UPN/Freigegebene Dokumente/Migrationen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{40033ABE-17FB-46E3-B1C1-D36FF5A890D7}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{B980ACC5-ED03-423B-9874-01608CFD2127}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="1800" windowWidth="25584" windowHeight="13596" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
+    <workbookView xWindow="2412" yWindow="2496" windowWidth="25584" windowHeight="13596" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
     <t>KUP - Keine weiteren Migration möglich</t>
   </si>
   <si>
-    <t>Unisport - Keine weiteren Migrationen möglich</t>
+    <t>SPORT - Keine weiteren Migrationen möglich</t>
   </si>
 </sst>
 </file>
@@ -687,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77097608-7024-4F6E-ADBD-1E32B20DCEF8}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1069,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="4">
-        <v>44439</v>
+        <v>44439.5625</v>
       </c>
       <c r="C55" s="3">
         <v>0.5625</v>
@@ -1094,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="B58" s="4">
-        <v>44455</v>
+        <v>44455.5625</v>
       </c>
       <c r="C58" s="3">
         <v>0.5625</v>
@@ -1116,188 +1116,183 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="4">
-        <v>44469</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="4">
+        <v>44474</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B64" s="4">
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="4">
         <v>44476</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="4">
+        <v>44481</v>
+      </c>
+    </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B68" s="4">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
-        <v>44482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="4">
         <v>44483</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="4">
+        <v>44488</v>
+      </c>
+    </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B72" s="4">
-        <v>44488</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
-        <v>44489</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="4">
         <v>44490</v>
       </c>
     </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="4">
+        <v>44495</v>
+      </c>
+    </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="B76" s="4">
-        <v>44495</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
-        <v>44496</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="4">
         <v>44497</v>
       </c>
     </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="4">
+        <v>44502</v>
+      </c>
+    </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="B80" s="4">
-        <v>44502</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
-        <v>44503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="4">
         <v>44504</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="4">
+        <v>44509</v>
+      </c>
+    </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="B84" s="4">
-        <v>44509</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
-        <v>44510</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="4">
         <v>44511</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="4">
+        <v>44516</v>
+      </c>
+    </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="B88" s="4">
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
-        <v>44517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="4">
         <v>44518</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="4">
+        <v>44523</v>
+      </c>
+    </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B92" s="4">
-        <v>44523</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
-        <v>44524</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="4">
         <v>44525</v>
       </c>
     </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="4">
+        <v>44530</v>
+      </c>
+    </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="B96" s="4">
-        <v>44530</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="4">
         <v>44532</v>
       </c>
     </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="4">
+        <v>44537</v>
+      </c>
+    </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B100" s="4">
-        <v>44537</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
-        <v>44538</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="4">
         <v>44539</v>
       </c>
     </row>

--- a/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
+++ b/docs/migration/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365.sharepoint.com/sites/ID-Mail2UPN/Freigegebene Dokumente/Migrationen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{B980ACC5-ED03-423B-9874-01608CFD2127}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81780AA5-E90E-45FD-9A47-4730F6FCACF6}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="2496" windowWidth="25584" windowHeight="13596" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Woche</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>SPORT - Keine weiteren Migrationen möglich</t>
+  </si>
+  <si>
+    <t>IKIM</t>
+  </si>
+  <si>
+    <t>IKG, HIST</t>
+  </si>
+  <si>
+    <t>HUMDEK</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,7 +1117,13 @@
         <v>29</v>
       </c>
       <c r="B60" s="4">
-        <v>44467</v>
+        <v>44467.5625</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,15 +1141,21 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44475.5625</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>44476</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>31</v>
       </c>
@@ -1142,17 +1163,17 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <v>44482</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <v>44483</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -1160,17 +1181,23 @@
         <v>44488</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
-        <v>44489</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44489.5625</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>44490</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>33</v>
       </c>
@@ -1178,17 +1205,17 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <v>44496</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <v>44497</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -1196,7 +1223,7 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <v>44503</v>
       </c>
@@ -1304,18 +1331,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1510,18 +1537,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D71FE82-3B51-4CD1-857A-863DD2419C08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F63B3C-1708-4114-8490-E03AFAFBE32B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F63B3C-1708-4114-8490-E03AFAFBE32B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D71FE82-3B51-4CD1-857A-863DD2419C08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
